--- a/10.11.xlsx
+++ b/10.11.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F2FD36F-CCAD-4477-B813-13A23F3E4FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dobos_Levente_11.b\10.11\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCFDDCE-1963-4CED-9E7C-8726FD80350A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12660" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -15,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="108">
   <si>
     <t>Eszköz neve</t>
   </si>
@@ -87,9 +81,6 @@
     <t>Serial0/0/0</t>
   </si>
   <si>
-    <t>200.200.1.1</t>
-  </si>
-  <si>
     <t>255.255.255.252</t>
   </si>
   <si>
@@ -114,9 +105,6 @@
     <t>10.10.1.1</t>
   </si>
   <si>
-    <t>200.200.1.2</t>
-  </si>
-  <si>
     <t>CYBERPUNK_LAN2</t>
   </si>
   <si>
@@ -324,9 +312,6 @@
     <t>Minden végberendezés DNS</t>
   </si>
   <si>
-    <t>7.7.7.7</t>
-  </si>
-  <si>
     <t>2023:10:D::3/64</t>
   </si>
   <si>
@@ -340,13 +325,37 @@
   </si>
   <si>
     <t>2023:10:A::6/64</t>
+  </si>
+  <si>
+    <t>WLAN</t>
+  </si>
+  <si>
+    <t>8.8.8.8</t>
+  </si>
+  <si>
+    <t>Átláthatóbb topológia</t>
+  </si>
+  <si>
+    <t>2023:10:A::2/64</t>
+  </si>
+  <si>
+    <t>2023:10:A::7/64</t>
+  </si>
+  <si>
+    <t>2023:10:B::2/64</t>
+  </si>
+  <si>
+    <t>2023:10:C::2/64</t>
+  </si>
+  <si>
+    <t>1.0.0.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,11 +364,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -382,6 +391,13 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -391,7 +407,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -559,11 +575,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -578,7 +609,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -615,6 +645,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -633,7 +670,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -929,13 +966,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M40"/>
+  <dimension ref="B2:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -946,29 +983,29 @@
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="28"/>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="31" t="s">
+      <c r="L2" s="27"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -988,8 +1025,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="32"/>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="31"/>
       <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
@@ -1007,185 +1044,188 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="32"/>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="31"/>
       <c r="C5" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="7"/>
+      <c r="K5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="14"/>
-      <c r="K5" s="10" t="s">
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="7" t="s">
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="24" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="32"/>
+      <c r="K6" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="K6" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="25"/>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="24"/>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="25"/>
+      <c r="G7" s="33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="24"/>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="K8" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="27"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="K8" s="27" t="s">
+      <c r="C9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="28"/>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="24" t="s">
+      <c r="D9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="E9" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L9" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="24"/>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="25"/>
-      <c r="C10" t="s">
+      <c r="E10" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="F10" s="11"/>
       <c r="K10" s="10" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="2" t="s">
+      <c r="D11" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="6"/>
       <c r="K11" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="6"/>
       <c r="K12" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>14</v>
@@ -1193,127 +1233,127 @@
       <c r="F14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="29" t="s">
+      <c r="K14" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="29"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="30"/>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="E15" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="6"/>
       <c r="K15" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L15" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="E16" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="B17" s="2" t="s">
+      <c r="E17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="5" t="s">
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="C18" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="L18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="23" t="s">
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="C19" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="12" t="s">
+      <c r="E19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C20" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="B20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>9</v>
@@ -1321,20 +1361,20 @@
       <c r="F20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="29" t="s">
+      <c r="K20" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" s="29"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="L20" s="30"/>
-    </row>
-    <row r="21" spans="2:13">
-      <c r="B21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>9</v>
@@ -1346,18 +1386,18 @@
         <v>10</v>
       </c>
       <c r="L21" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="B22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>9</v>
@@ -1369,18 +1409,18 @@
         <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13">
-      <c r="B23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>9</v>
@@ -1389,296 +1429,356 @@
         <v>8</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K24" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13">
-      <c r="B25" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="18" t="s">
+      <c r="E25" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:13">
-      <c r="B26" s="24" t="s">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="2:13">
-      <c r="B27" s="25"/>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="24"/>
       <c r="C27" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F27" s="11"/>
       <c r="K27" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13">
-      <c r="B28" s="26"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="25"/>
       <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="2:13">
-      <c r="B29" s="24" t="s">
-        <v>22</v>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="K29" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="19" t="s">
         <v>83</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="K29" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="20" t="s">
-        <v>85</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="2:13">
-      <c r="B30" s="25"/>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="24"/>
       <c r="C30" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="K30" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="K30" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L30" s="20" t="s">
-        <v>88</v>
       </c>
       <c r="M30" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:13">
-      <c r="B31" s="26"/>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="25"/>
       <c r="C31" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="11"/>
-      <c r="K31" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="L31" s="22" t="s">
-        <v>90</v>
+      <c r="K31" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L31" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="L32" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="M32" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12">
+        <v>77</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="M32" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>46</v>
+        <v>59</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>46</v>
+        <v>61</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>46</v>
+        <v>64</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>46</v>
+        <v>67</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="2:12">
-      <c r="B40" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="1" t="s">
-        <v>77</v>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1694,5 +1794,6 @@
     <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>